--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC82-SET COLOCACION 4.5-6.5 # 3.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NBC82-SET COLOCACION 4.5-6.5 # 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE90CDC7-FF4D-45E2-BA06-26E0D2AB75AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904CA5F2-A5C1-4E5B-8EB1-C813E5399921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>INSUMOS QUIRURGICOS ORTOMACX INQUIORT S.A.</t>
   </si>
@@ -131,12 +131,6 @@
     <t>TARRAJA 6.5MM</t>
   </si>
   <si>
-    <t xml:space="preserve">GUIA DE BROCA DE 3.2/4.5MM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GUIA DE BROCA DE 3.2/6.5MM </t>
-  </si>
-  <si>
     <t xml:space="preserve">EXTRACTOR HEXAGONAL ANCLAJE RAPIDO  </t>
   </si>
   <si>
@@ -204,6 +198,9 @@
   </si>
   <si>
     <t xml:space="preserve">ATORNILLADOR ANCLAJE DE 4,5MM STAR DRIVE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIA DOBLE DE  BROCA DE 3.2/4.5MM </t>
   </si>
 </sst>
 </file>
@@ -972,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1326,7 +1323,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1334,7 +1331,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1342,7 +1339,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1350,7 +1347,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1358,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1366,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1374,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1382,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1390,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1398,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1406,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1414,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1422,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1438,13 +1435,13 @@
         <v>1</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="33"/>
       <c r="C50" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1461,7 +1458,7 @@
     <row r="53" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="37"/>
       <c r="C53" s="35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1469,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1477,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1485,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1501,7 +1498,7 @@
         <v>2</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1517,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1525,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
